--- a/Code/Results/Cases/Case_8_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.41760472468442</v>
+        <v>24.98073034462388</v>
       </c>
       <c r="C2">
-        <v>18.15543460434605</v>
+        <v>18.91519544012004</v>
       </c>
       <c r="D2">
-        <v>4.903510505591973</v>
+        <v>4.435090050290167</v>
       </c>
       <c r="E2">
-        <v>6.739003776559516</v>
+        <v>6.982703007205626</v>
       </c>
       <c r="F2">
-        <v>35.7873989283786</v>
+        <v>32.60358801386738</v>
       </c>
       <c r="G2">
-        <v>2.093803212063073</v>
+        <v>2.6708756168045</v>
       </c>
       <c r="H2">
-        <v>1.783038058005614</v>
+        <v>1.583643000242895</v>
       </c>
       <c r="I2">
-        <v>2.628175321703946</v>
+        <v>2.531888325089858</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.6366689022964</v>
+        <v>21.05099010482289</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.32606987260708</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.12265083900652</v>
       </c>
       <c r="N2">
-        <v>8.475192633977098</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.07799675904052</v>
+        <v>8.597123820021126</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.55398227863604</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.72478040045051</v>
+        <v>23.40096861796041</v>
       </c>
       <c r="C3">
-        <v>16.88719265792142</v>
+        <v>17.637341190028</v>
       </c>
       <c r="D3">
-        <v>4.892673620263597</v>
+        <v>4.399784894053362</v>
       </c>
       <c r="E3">
-        <v>6.458419816467281</v>
+        <v>6.810695624423404</v>
       </c>
       <c r="F3">
-        <v>34.16247197782076</v>
+        <v>31.16028249986558</v>
       </c>
       <c r="G3">
-        <v>2.101315948363474</v>
+        <v>3.545010290005957</v>
       </c>
       <c r="H3">
-        <v>2.096594115875466</v>
+        <v>1.831298883540141</v>
       </c>
       <c r="I3">
-        <v>2.906206073645725</v>
+        <v>2.621851504987508</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.96813602585831</v>
+        <v>20.5431916342455</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.12746890973954</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.53618530394313</v>
       </c>
       <c r="N3">
-        <v>8.084177730839377</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.22339846912806</v>
+        <v>8.226425252264621</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.69168459171849</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.62682536793476</v>
+        <v>22.37192070418235</v>
       </c>
       <c r="C4">
-        <v>16.06828979527233</v>
+        <v>16.80990268964148</v>
       </c>
       <c r="D4">
-        <v>4.884687441111388</v>
+        <v>4.376151681677514</v>
       </c>
       <c r="E4">
-        <v>6.281576239403004</v>
+        <v>6.702223685126148</v>
       </c>
       <c r="F4">
-        <v>33.13707288511875</v>
+        <v>30.24177059148465</v>
       </c>
       <c r="G4">
-        <v>2.106062578150959</v>
+        <v>4.098732670929936</v>
       </c>
       <c r="H4">
-        <v>2.294977567080812</v>
+        <v>1.988419281353013</v>
       </c>
       <c r="I4">
-        <v>3.082827208145912</v>
+        <v>2.753413678269571</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.55148089822975</v>
+        <v>20.22352811323273</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.99556644443454</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.18311185906599</v>
       </c>
       <c r="N4">
-        <v>7.834930425474636</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.3128821061629</v>
+        <v>7.990472519473446</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.77642806145598</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.15562420644488</v>
+        <v>21.92912632732244</v>
       </c>
       <c r="C5">
-        <v>15.72841405630177</v>
+        <v>16.46575737434818</v>
       </c>
       <c r="D5">
-        <v>4.87950055619172</v>
+        <v>4.364969234274641</v>
       </c>
       <c r="E5">
-        <v>6.207515610893853</v>
+        <v>6.656745173237756</v>
       </c>
       <c r="F5">
-        <v>32.69491026543256</v>
+        <v>29.84284685071217</v>
       </c>
       <c r="G5">
-        <v>2.10804546188573</v>
+        <v>4.33036665060452</v>
       </c>
       <c r="H5">
-        <v>2.377931829416203</v>
+        <v>2.054224004939225</v>
       </c>
       <c r="I5">
-        <v>3.159415808449775</v>
+        <v>2.811981909543547</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.36702362789481</v>
+        <v>20.07921580190228</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.92957882017426</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.03274244837155</v>
       </c>
       <c r="N5">
-        <v>7.731124647436677</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.34727791155854</v>
+        <v>7.892322011432097</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.80966635094119</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.06534787013279</v>
+        <v>21.84418574123806</v>
       </c>
       <c r="C6">
-        <v>15.67630783316345</v>
+        <v>16.4126821756033</v>
       </c>
       <c r="D6">
-        <v>4.876667500357868</v>
+        <v>4.361795742782374</v>
       </c>
       <c r="E6">
-        <v>6.194169983623711</v>
+        <v>6.648500884787128</v>
       </c>
       <c r="F6">
-        <v>32.59934694289584</v>
+        <v>29.75554695076546</v>
       </c>
       <c r="G6">
-        <v>2.108393726408727</v>
+        <v>4.371064623751815</v>
       </c>
       <c r="H6">
-        <v>2.392524949465271</v>
+        <v>2.0658146329856</v>
       </c>
       <c r="I6">
-        <v>3.176198927706542</v>
+        <v>2.826472020045932</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.32010040348223</v>
+        <v>20.04028202781527</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.90660871951696</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.99722501149982</v>
       </c>
       <c r="N6">
-        <v>7.713760084560669</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.35039088356282</v>
+        <v>7.875928914058392</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.8135394741029</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.59075316123097</v>
+        <v>22.29528730970214</v>
       </c>
       <c r="C7">
-        <v>16.07690032148247</v>
+        <v>16.75066380619061</v>
       </c>
       <c r="D7">
-        <v>4.879306297256504</v>
+        <v>4.365950591729414</v>
       </c>
       <c r="E7">
-        <v>6.277955505245821</v>
+        <v>6.700130404065105</v>
       </c>
       <c r="F7">
-        <v>33.07259911355721</v>
+        <v>30.06733866359089</v>
       </c>
       <c r="G7">
-        <v>2.106134817568824</v>
+        <v>4.172087719949101</v>
       </c>
       <c r="H7">
-        <v>2.298051208423458</v>
+        <v>1.99379262448938</v>
       </c>
       <c r="I7">
-        <v>3.094485206313494</v>
+        <v>2.769761109700426</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.50510885025031</v>
+        <v>20.12076343630545</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.91478192944171</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.10772998098308</v>
       </c>
       <c r="N7">
-        <v>7.833557863805418</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.30628628543472</v>
+        <v>7.983253857155606</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.76606444356566</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.80953882151722</v>
+        <v>24.28270898343644</v>
       </c>
       <c r="C8">
-        <v>17.74230694068033</v>
+        <v>18.29215382516102</v>
       </c>
       <c r="D8">
-        <v>4.893124708742667</v>
+        <v>4.399087093904214</v>
       </c>
       <c r="E8">
-        <v>6.639843586674515</v>
+        <v>6.922574532404526</v>
       </c>
       <c r="F8">
-        <v>35.1597228703454</v>
+        <v>31.68659935792181</v>
       </c>
       <c r="G8">
-        <v>2.096425018582904</v>
+        <v>3.377847305945615</v>
       </c>
       <c r="H8">
-        <v>1.892468641214689</v>
+        <v>1.679375747432219</v>
       </c>
       <c r="I8">
-        <v>2.736966674291088</v>
+        <v>2.512350243238553</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.35131248240923</v>
+        <v>20.63208333781289</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.07035554555338</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.73483068654023</v>
       </c>
       <c r="N8">
-        <v>8.342343839469905</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.11897934501597</v>
+        <v>8.452374616346516</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.57704351515534</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.74274464254369</v>
+        <v>27.91304801438216</v>
       </c>
       <c r="C9">
-        <v>20.67373532174403</v>
+        <v>21.20386185142441</v>
       </c>
       <c r="D9">
-        <v>4.918802058216747</v>
+        <v>4.477099323545721</v>
       </c>
       <c r="E9">
-        <v>7.320157213041896</v>
+        <v>7.338503918309693</v>
       </c>
       <c r="F9">
-        <v>39.114099737806</v>
+        <v>35.10383467390296</v>
       </c>
       <c r="G9">
-        <v>2.078313009720583</v>
+        <v>1.816361345025065</v>
       </c>
       <c r="H9">
-        <v>1.972764249519688</v>
+        <v>2.021085492843347</v>
       </c>
       <c r="I9">
-        <v>2.878922854689226</v>
+        <v>2.933126010397518</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.03138938116596</v>
+        <v>21.86010478229515</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.52509411096487</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.21752543282574</v>
       </c>
       <c r="N9">
-        <v>9.265121720078008</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.76483036188263</v>
+        <v>9.324941038459482</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.23684751181973</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.22774810188358</v>
+        <v>30.00138641306237</v>
       </c>
       <c r="C10">
-        <v>22.6529494486201</v>
+        <v>22.84590464953542</v>
       </c>
       <c r="D10">
-        <v>4.90408437837177</v>
+        <v>4.488282625068009</v>
       </c>
       <c r="E10">
-        <v>7.768082989515908</v>
+        <v>7.606972231569202</v>
       </c>
       <c r="F10">
-        <v>41.59287111975818</v>
+        <v>36.66917909975241</v>
       </c>
       <c r="G10">
-        <v>2.065814571158181</v>
+        <v>4.176519829603395</v>
       </c>
       <c r="H10">
-        <v>2.473215289307495</v>
+        <v>2.394566647630854</v>
       </c>
       <c r="I10">
-        <v>3.326799955486526</v>
+        <v>3.246907636536075</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.02504889699017</v>
+        <v>22.24407914808064</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.46600745383071</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.93562302102309</v>
       </c>
       <c r="N10">
-        <v>9.751152404661285</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.47110769715231</v>
+        <v>9.748049397903905</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.95046922061753</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.32116364078353</v>
+        <v>29.75168755874454</v>
       </c>
       <c r="C11">
-        <v>23.56602239857786</v>
+        <v>23.0578287196443</v>
       </c>
       <c r="D11">
-        <v>4.703979985572998</v>
+        <v>4.444305985761779</v>
       </c>
       <c r="E11">
-        <v>7.897778197771004</v>
+        <v>7.671637877131363</v>
       </c>
       <c r="F11">
-        <v>40.52720930930295</v>
+        <v>34.58135889339244</v>
       </c>
       <c r="G11">
-        <v>2.062395799024912</v>
+        <v>7.964065170563709</v>
       </c>
       <c r="H11">
-        <v>3.256226846111046</v>
+        <v>3.154227906214608</v>
       </c>
       <c r="I11">
-        <v>3.437401255428575</v>
+        <v>3.301477921870458</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.84069649214351</v>
+        <v>20.56520689949956</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.10348448392208</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.80094086539059</v>
       </c>
       <c r="N11">
-        <v>8.744765745942843</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.10255158634194</v>
+        <v>8.668647488715857</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.76104951499167</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.91927428158134</v>
+        <v>29.26236928833668</v>
       </c>
       <c r="C12">
-        <v>23.91778444555134</v>
+        <v>23.06886281563893</v>
       </c>
       <c r="D12">
-        <v>4.580804876792532</v>
+        <v>4.484948988387032</v>
       </c>
       <c r="E12">
-        <v>8.207771136168985</v>
+        <v>7.923980787107363</v>
       </c>
       <c r="F12">
-        <v>39.16186008304326</v>
+        <v>32.87256112456403</v>
       </c>
       <c r="G12">
-        <v>2.06191663166951</v>
+        <v>9.79972901451444</v>
       </c>
       <c r="H12">
-        <v>4.410692368694857</v>
+        <v>4.330584739725494</v>
       </c>
       <c r="I12">
-        <v>3.440907947014111</v>
+        <v>3.292343098112895</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.67861436082639</v>
+        <v>19.31465065906456</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.16163584742802</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.87240289373507</v>
       </c>
       <c r="N12">
-        <v>7.820781628038122</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.90676843347011</v>
+        <v>7.715123583106509</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.74134678348216</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.06390412715871</v>
+        <v>28.58064830703119</v>
       </c>
       <c r="C13">
-        <v>23.88441965749116</v>
+        <v>23.0680434620427</v>
       </c>
       <c r="D13">
-        <v>4.504016568007174</v>
+        <v>4.535679033941776</v>
       </c>
       <c r="E13">
-        <v>8.641438209940009</v>
+        <v>8.364836754032073</v>
       </c>
       <c r="F13">
-        <v>37.36704975964017</v>
+        <v>31.46984211035268</v>
       </c>
       <c r="G13">
-        <v>2.063738184173073</v>
+        <v>9.345459219467221</v>
       </c>
       <c r="H13">
-        <v>5.657172446910965</v>
+        <v>5.607362884489659</v>
       </c>
       <c r="I13">
-        <v>3.3639918425961</v>
+        <v>3.241580216482572</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.38460121120777</v>
+        <v>18.36338803896028</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.50306677750627</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.09031674074656</v>
       </c>
       <c r="N13">
-        <v>6.900273585133691</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.82258086962425</v>
+        <v>6.807192213776037</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.79884006604499</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.24104826064341</v>
+        <v>27.99631777957552</v>
       </c>
       <c r="C14">
-        <v>23.69041752488437</v>
+        <v>23.06029204014231</v>
       </c>
       <c r="D14">
-        <v>4.476626039224304</v>
+        <v>4.562727233800217</v>
       </c>
       <c r="E14">
-        <v>9.019961767347723</v>
+        <v>8.796726685558191</v>
       </c>
       <c r="F14">
-        <v>35.88114978801327</v>
+        <v>30.58456973872172</v>
       </c>
       <c r="G14">
-        <v>2.066049619539662</v>
+        <v>8.007422273431082</v>
       </c>
       <c r="H14">
-        <v>6.564626527701137</v>
+        <v>6.534490164881452</v>
       </c>
       <c r="I14">
-        <v>3.275081388888171</v>
+        <v>3.188042872188937</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.40329024242916</v>
+        <v>17.80632721158693</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.14656291261363</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.59048923548971</v>
       </c>
       <c r="N14">
-        <v>6.271305819329866</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.8190203650776</v>
+        <v>6.204777461734857</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.86194607094396</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.93186854313521</v>
+        <v>27.79562707376133</v>
       </c>
       <c r="C15">
-        <v>23.56420104723737</v>
+        <v>23.0504144148201</v>
       </c>
       <c r="D15">
-        <v>4.474838039068068</v>
+        <v>4.56074598272189</v>
       </c>
       <c r="E15">
-        <v>9.102175263236683</v>
+        <v>8.914192703239065</v>
       </c>
       <c r="F15">
-        <v>35.40678259703415</v>
+        <v>30.39712491966968</v>
       </c>
       <c r="G15">
-        <v>2.067138340742042</v>
+        <v>7.243430619264207</v>
       </c>
       <c r="H15">
-        <v>6.769428108253902</v>
+        <v>6.745736170019061</v>
       </c>
       <c r="I15">
-        <v>3.236463640079695</v>
+        <v>3.166553037368668</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.12295455263204</v>
+        <v>17.70748467601527</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.09714328089954</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.48133460897374</v>
       </c>
       <c r="N15">
-        <v>6.115535276633953</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.83540367696961</v>
+        <v>6.062738899503209</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.88262202113218</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.0028667992343</v>
+        <v>27.28456327814624</v>
       </c>
       <c r="C16">
-        <v>22.7671150515489</v>
+        <v>22.84856564266696</v>
       </c>
       <c r="D16">
-        <v>4.495064957905087</v>
+        <v>4.479365119878087</v>
       </c>
       <c r="E16">
-        <v>8.835934956853045</v>
+        <v>8.82910027952768</v>
       </c>
       <c r="F16">
-        <v>34.57825233713173</v>
+        <v>30.72542048370137</v>
       </c>
       <c r="G16">
-        <v>2.072112366163606</v>
+        <v>3.670044432801812</v>
       </c>
       <c r="H16">
-        <v>6.478085320350416</v>
+        <v>6.476740563003014</v>
       </c>
       <c r="I16">
-        <v>3.063035095103573</v>
+        <v>3.066304992361959</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.89412121809323</v>
+        <v>18.11581848343618</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.49768584097749</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.64930110575363</v>
       </c>
       <c r="N16">
-        <v>6.052630708399561</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.97209756711608</v>
+        <v>6.062149692995079</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.92827475056052</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.73577184129567</v>
+        <v>27.17249947239115</v>
       </c>
       <c r="C17">
-        <v>22.25094257729161</v>
+        <v>22.61192951131542</v>
       </c>
       <c r="D17">
-        <v>4.521252565504211</v>
+        <v>4.429381912703595</v>
       </c>
       <c r="E17">
-        <v>8.398235953276114</v>
+        <v>8.470642132137911</v>
       </c>
       <c r="F17">
-        <v>34.7610913271423</v>
+        <v>31.32942180148292</v>
       </c>
       <c r="G17">
-        <v>2.07471683812219</v>
+        <v>2.228775336762094</v>
       </c>
       <c r="H17">
-        <v>5.718246642862305</v>
+        <v>5.72779470477924</v>
       </c>
       <c r="I17">
-        <v>2.976988697521308</v>
+        <v>3.014804997423134</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.24935353733412</v>
+        <v>18.66613961357979</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.96241871391631</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.99127981027636</v>
       </c>
       <c r="N17">
-        <v>6.336942585069036</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.07588361824848</v>
+        <v>6.376225550378613</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.9553456843706</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.04070177578548</v>
+        <v>27.47396841444466</v>
       </c>
       <c r="C18">
-        <v>21.91842802840104</v>
+        <v>22.42499086915178</v>
       </c>
       <c r="D18">
-        <v>4.576995794113143</v>
+        <v>4.403488459921249</v>
       </c>
       <c r="E18">
-        <v>7.868485858913821</v>
+        <v>7.953248857834938</v>
       </c>
       <c r="F18">
-        <v>35.8761180237391</v>
+        <v>32.47812662808945</v>
       </c>
       <c r="G18">
-        <v>2.075456403546565</v>
+        <v>1.751502556355212</v>
       </c>
       <c r="H18">
-        <v>4.504851888066261</v>
+        <v>4.520564717103399</v>
       </c>
       <c r="I18">
-        <v>2.956592665764898</v>
+        <v>3.002265034998632</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.18022088375766</v>
+        <v>19.54328230552499</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.63943636883436</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.63049832213616</v>
       </c>
       <c r="N18">
-        <v>6.998702289823204</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.1881506648301</v>
+        <v>7.05183263447466</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.97571724989612</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.73112065560285</v>
+        <v>28.06835746397548</v>
       </c>
       <c r="C19">
-        <v>21.78262064168752</v>
+        <v>22.36121842263419</v>
       </c>
       <c r="D19">
-        <v>4.676930973376933</v>
+        <v>4.415972753701789</v>
       </c>
       <c r="E19">
-        <v>7.50137965123775</v>
+        <v>7.543116559541339</v>
       </c>
       <c r="F19">
-        <v>37.54401733026747</v>
+        <v>33.96021826088734</v>
       </c>
       <c r="G19">
-        <v>2.074600992280205</v>
+        <v>1.745111860780695</v>
       </c>
       <c r="H19">
-        <v>3.171379109199687</v>
+        <v>3.188409841811431</v>
       </c>
       <c r="I19">
-        <v>3.001523911474458</v>
+        <v>3.036909871935666</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.43353462696334</v>
+        <v>20.60138067707687</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.42642001631735</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.44434243264595</v>
       </c>
       <c r="N19">
-        <v>7.957192471525007</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.32608356918088</v>
+        <v>8.013726412767923</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.00800438438155</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.51533752093405</v>
+        <v>29.51701504178133</v>
       </c>
       <c r="C20">
-        <v>22.17599257227742</v>
+        <v>22.64263515664842</v>
       </c>
       <c r="D20">
-        <v>4.89187546567844</v>
+        <v>4.493211104207644</v>
       </c>
       <c r="E20">
-        <v>7.642295528556367</v>
+        <v>7.53160673345707</v>
       </c>
       <c r="F20">
-        <v>40.78957334075353</v>
+        <v>36.45157644081658</v>
       </c>
       <c r="G20">
-        <v>2.069205105985403</v>
+        <v>2.735946955799449</v>
       </c>
       <c r="H20">
-        <v>2.335945587177064</v>
+        <v>2.300977733014606</v>
       </c>
       <c r="I20">
-        <v>3.215201372086853</v>
+        <v>3.184803298640128</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.63708509190479</v>
+        <v>22.21975960674801</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.53747347274883</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.80596977336581</v>
       </c>
       <c r="N20">
-        <v>9.619383743189012</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.52684134015427</v>
+        <v>9.650712899243812</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.02984580856491</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.52435548333744</v>
+        <v>30.60338275557357</v>
       </c>
       <c r="C21">
-        <v>23.62360098409868</v>
+        <v>22.8951312226177</v>
       </c>
       <c r="D21">
-        <v>4.919201655223286</v>
+        <v>4.457550841113672</v>
       </c>
       <c r="E21">
-        <v>8.036486923182219</v>
+        <v>7.793965489677339</v>
       </c>
       <c r="F21">
-        <v>43.05481333789339</v>
+        <v>36.24405271638845</v>
       </c>
       <c r="G21">
-        <v>2.059331075767291</v>
+        <v>9.642625772849382</v>
       </c>
       <c r="H21">
-        <v>2.741026223378057</v>
+        <v>2.558196656424609</v>
       </c>
       <c r="I21">
-        <v>3.5698719237566</v>
+        <v>3.384105307343645</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.69818561091513</v>
+        <v>21.77551310255521</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.95975437439773</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.7791218693014</v>
       </c>
       <c r="N21">
-        <v>10.20134606477168</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.35146403470019</v>
+        <v>10.09339709661256</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.77347915713597</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.78771319431224</v>
+        <v>31.23842703265783</v>
       </c>
       <c r="C22">
-        <v>24.52991672619761</v>
+        <v>22.99098437124254</v>
       </c>
       <c r="D22">
-        <v>4.929961151288835</v>
+        <v>4.457609358648043</v>
       </c>
       <c r="E22">
-        <v>8.27759607795954</v>
+        <v>7.972706440057907</v>
       </c>
       <c r="F22">
-        <v>44.43673055430273</v>
+        <v>35.94508687766878</v>
       </c>
       <c r="G22">
-        <v>2.053024419244329</v>
+        <v>14.69604874547256</v>
       </c>
       <c r="H22">
-        <v>2.995706305714071</v>
+        <v>2.717495458073293</v>
       </c>
       <c r="I22">
-        <v>3.792623327040472</v>
+        <v>3.504756879169614</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.3374974159615</v>
+        <v>21.3876810045412</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.5216201162229</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.68213508044659</v>
       </c>
       <c r="N22">
-        <v>10.49834667161672</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.22985816729279</v>
+        <v>10.29599207971179</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.62354034578256</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.13974719100465</v>
+        <v>31.00948318017231</v>
       </c>
       <c r="C23">
-        <v>24.03832839830843</v>
+        <v>23.05723961643315</v>
       </c>
       <c r="D23">
-        <v>4.930243800157556</v>
+        <v>4.459423102480371</v>
       </c>
       <c r="E23">
-        <v>8.151685126383624</v>
+        <v>7.872256079624459</v>
       </c>
       <c r="F23">
-        <v>43.75629533347424</v>
+        <v>36.39155003779094</v>
       </c>
       <c r="G23">
-        <v>2.056336485598618</v>
+        <v>11.21700470548188</v>
       </c>
       <c r="H23">
-        <v>2.86204576736119</v>
+        <v>2.639634341517894</v>
       </c>
       <c r="I23">
-        <v>3.672176779896193</v>
+        <v>3.442380593154376</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.04122122370541</v>
+        <v>21.76915868966362</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.87945387681889</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.87209205796455</v>
       </c>
       <c r="N23">
-        <v>10.34062867282075</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.30250634706119</v>
+        <v>10.20074317370207</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.7075803385881</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.61238569090082</v>
+        <v>29.60720190694958</v>
       </c>
       <c r="C24">
-        <v>22.13059599330316</v>
+        <v>22.61239038161924</v>
       </c>
       <c r="D24">
-        <v>4.919536602692733</v>
+        <v>4.505865187846156</v>
       </c>
       <c r="E24">
-        <v>7.667327952812399</v>
+        <v>7.55003504605429</v>
       </c>
       <c r="F24">
-        <v>41.03429415397584</v>
+        <v>36.68664409042655</v>
       </c>
       <c r="G24">
-        <v>2.069089926304807</v>
+        <v>2.705443113988502</v>
       </c>
       <c r="H24">
-        <v>2.346430074856292</v>
+        <v>2.310370849314321</v>
       </c>
       <c r="I24">
-        <v>3.214280761776341</v>
+        <v>3.180641447511619</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.8352642141041</v>
+        <v>22.4003229028004</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.67422366272973</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.94170022683842</v>
       </c>
       <c r="N24">
-        <v>9.725399085960895</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.56491255060893</v>
+        <v>9.757808092843081</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.04811653269715</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.68317227932453</v>
+        <v>26.9898913622859</v>
       </c>
       <c r="C25">
-        <v>19.93282928970341</v>
+        <v>20.55136406511522</v>
       </c>
       <c r="D25">
-        <v>4.903766830503864</v>
+        <v>4.460308500513012</v>
       </c>
       <c r="E25">
-        <v>7.135051893920777</v>
+        <v>7.225008733788341</v>
       </c>
       <c r="F25">
-        <v>37.97842871615494</v>
+        <v>34.26506133908944</v>
       </c>
       <c r="G25">
-        <v>2.083189995840502</v>
+        <v>1.793878750892177</v>
       </c>
       <c r="H25">
-        <v>1.774761731661244</v>
+        <v>1.870327487537299</v>
       </c>
       <c r="I25">
-        <v>2.710909856953547</v>
+        <v>2.816750772983641</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.51021795961309</v>
+        <v>21.54842810886577</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.42040662535477</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.82480190250435</v>
       </c>
       <c r="N25">
-        <v>9.023816436610959</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.84854244307957</v>
+        <v>9.104395507409974</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.32982173803072</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
